--- a/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
+++ b/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12160922-E98A-4EA8-B802-4FA388B558D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2FD0AA-6A7F-429C-B4EB-A699A3ACC487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -246,7 +246,7 @@
     <t>FL(5-0-0)</t>
   </si>
   <si>
-    <t>11/28, 12/12,19, 23, 29</t>
+    <t>11/28, 12/12,19, 22, 29</t>
   </si>
 </sst>
 </file>
@@ -2707,7 +2707,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A45" activePane="bottomLeft"/>
       <selection activeCell="M8" sqref="M8"/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
+++ b/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2FD0AA-6A7F-429C-B4EB-A699A3ACC487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCB94F0-9D95-494C-979A-F9BD8686A68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -247,6 +239,9 @@
   </si>
   <si>
     <t>11/28, 12/12,19, 22, 29</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -2705,9 +2700,9 @@
   <dimension ref="A2:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A45" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A56" activePane="bottomLeft"/>
       <selection activeCell="M8" sqref="M8"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2874,7 +2869,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>21.125</v>
+        <v>22.375</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2884,7 +2879,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>40.125</v>
+        <v>41.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4018,7 +4013,9 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
+      <c r="A62" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -4034,15 +4031,19 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
+      <c r="A63" s="40">
+        <v>44927</v>
+      </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
@@ -4050,8 +4051,12 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
@@ -4063,7 +4068,9 @@
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="49">
+        <v>44973</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>

--- a/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
+++ b/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>UT(0-0-21)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2372,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K142" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2716,12 +2719,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K142"/>
+  <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,7 +2891,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>25.974999999999994</v>
+        <v>29.724999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2898,7 +2901,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47.125</v>
+        <v>49.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4312,13 +4315,15 @@
       <c r="B74" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39">
         <v>1</v>
@@ -4333,32 +4338,42 @@
       <c r="A75" s="40">
         <v>45200</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
+      <c r="B75" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H75" s="39"/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H75" s="39">
+        <v>1</v>
+      </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="49">
+        <v>45202</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45231</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4384,8 +4399,8 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>45292</v>
+      <c r="A78" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4403,7 +4418,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4421,7 +4436,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4439,7 +4454,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4457,7 +4472,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4475,7 +4490,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4493,7 +4508,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4511,7 +4526,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4529,7 +4544,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4547,7 +4562,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4565,7 +4580,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4583,7 +4598,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4601,7 +4616,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4619,7 +4634,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4637,7 +4652,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4655,7 +4670,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4672,7 +4687,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45748</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5440,20 +5457,36 @@
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="41"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="42"/>
-      <c r="D142" s="43"/>
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H142" s="43"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
       <c r="I142" s="9"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="15"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="41"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="43"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
